--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>K</t>
   </si>
   <si>
-    <t>N</t>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,182 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -495,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -789,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -812,7 +990,7 @@
       </c>
       <c r="N7">
         <f>E7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <f>A8</f>
@@ -820,7 +998,7 @@
       </c>
       <c r="P7">
         <f>B8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <f>C8</f>
@@ -832,7 +1010,7 @@
       </c>
       <c r="S7">
         <f>E8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <f>A9</f>
@@ -844,7 +1022,7 @@
       </c>
       <c r="V7">
         <f>C9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <f>D9</f>
@@ -852,7 +1030,7 @@
       </c>
       <c r="X7">
         <f>E9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <f>A10</f>
@@ -868,11 +1046,11 @@
       </c>
       <c r="AB7">
         <f>D10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7">
         <f>E10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7">
         <f>A11</f>
@@ -880,15 +1058,15 @@
       </c>
       <c r="AE7">
         <f>B11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
         <f>C11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7">
         <f>D11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7">
         <f>E11</f>
@@ -901,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -910,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
@@ -921,17 +1099,17 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <f>CODE(G7)</f>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1003,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
@@ -1020,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
@@ -1031,66 +1209,388 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <f>A13</f>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f>B13</f>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>C13</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f>D13</f>
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <f>E13</f>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f>A14</f>
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <f>B14</f>
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <f>C14</f>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f>D14</f>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f>E14</f>
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <f>A15</f>
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <f>B15</f>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f>C15</f>
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <f>D15</f>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f>E15</f>
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <f>A16</f>
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <f>B16</f>
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f>C16</f>
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <f>D16</f>
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f>E16</f>
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <f>A17</f>
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <f>B17</f>
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <f>C17</f>
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <f>D17</f>
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <f>E17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f>CODE(G13)</f>
+        <v>77</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N28:XFD28 D30:XFD1048576 A27:C1048576 A14:C15 A19:A26 A16 AI2:XFD6 D29:I29 K29:XFD29 AC3:AH3 AI8:XFD27 A2:XFD2 A1:G1 I1:XFD1 A2:I6 A4:XFD6 A8:XFD8 A7:G7 I7:XFD7 A8:I13">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+  <conditionalFormatting sqref="N28:XFD28 D30:XFD1048576 A27:C1048576 A19:A26 AI2:XFD6 D29:I29 K29:XFD29 AC3:AH3 AI8:XFD27 A2:XFD2 A1:G1 I1:XFD1 A2:I6 A4:XFD6 A8:XFD8 A7:G7 I7:XFD7 A8:I12 F13:H13">
+    <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:AH7">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:AH6 K8:AH8 K10:AH27 J3:AA3 J9:AH9">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="21" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:AH6 K8:AH8 K10:AH12 J3:AA3 J9:AH9 K16:AH27">
+    <cfRule type="cellIs" dxfId="36" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AH4">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J6 J8:J29">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="24" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J6 J8:J12 J16:J29">
+    <cfRule type="cellIs" dxfId="34" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC9:AH9">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9:AA9">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:H3 J3:XFD3 A10:XFD1048576 A9:H9 J9:XFD9">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:H3 J3:XFD3 A9:H9 J9:XFD9 A10:XFD12 A18:XFD1048576 F16:XFD17 F13:H15 AI13:XFD15">
+    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:AH9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:E17">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:E17">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:AH14 I15">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:AH13">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:AH14 J15:AH15">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:J15">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC15:AH15">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y15:AA15">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:AH15">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:AH15">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Administrator/Documents/develop/MATLAB/proyecto_redes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lizbet\Documents\Redes Neuronales\MATLAB_REDES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>K</t>
   </si>
@@ -34,12 +34,15 @@
   <si>
     <t>M</t>
   </si>
+  <si>
+    <t>N</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -66,6 +69,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,28 +116,351 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="85">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -405,6 +739,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -673,20 +1010,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="7.1640625" customWidth="1"/>
+    <col min="1" max="5" width="1.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" customWidth="1"/>
+    <col min="7" max="7" width="2.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="10" max="34" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="34" width="1.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -785,7 +1125,7 @@
         <f>E4</f>
         <v>0</v>
       </c>
-      <c r="AD1">
+      <c r="AD1" s="2">
         <f>A5</f>
         <v>1</v>
       </c>
@@ -806,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -823,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -919,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -936,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -953,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1074,7 +1414,7 @@
       </c>
       <c r="AJ7" s="1"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1091,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1187,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1204,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1221,7 +1561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1232,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1254,7 +1594,7 @@
       </c>
       <c r="M13">
         <f>D13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <f>E13</f>
@@ -1274,7 +1614,7 @@
       </c>
       <c r="R13">
         <f>D14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
         <f>E14</f>
@@ -1341,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1352,13 +1692,13 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1454,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1471,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1486,115 +1826,809 @@
       </c>
       <c r="E17">
         <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <f>A19</f>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f>B19</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>C19</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f>D19</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>E19</f>
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <f>A20</f>
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <f>B20</f>
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <f>C20</f>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f>D20</f>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f>E20</f>
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <f>A21</f>
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <f>B21</f>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f>C21</f>
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <f>D21</f>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f>E21</f>
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <f>A22</f>
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <f>B22</f>
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <f>C22</f>
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <f>D22</f>
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <f>E22</f>
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <f>A23</f>
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <f>B23</f>
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <f>C23</f>
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <f>D23</f>
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <f>E23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f>CODE(G19)</f>
+        <v>78</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f>A25</f>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f>B25</f>
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <f>C25</f>
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f>D25</f>
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <f>E25</f>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f>A26</f>
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <f>B26</f>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f>C26</f>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f>D26</f>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f>E26</f>
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <f>A27</f>
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <f>B27</f>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f>C27</f>
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <f>D27</f>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f>E27</f>
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <f>A28</f>
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <f>B28</f>
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <f>C28</f>
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <f>D28</f>
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <f>E28</f>
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <f>A29</f>
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <f>B29</f>
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <f>C29</f>
+        <v>1</v>
+      </c>
+      <c r="AG25">
+        <f>D29</f>
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <f>E29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f>CODE(G25)</f>
+        <v>48</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N28:XFD28 D30:XFD1048576 A27:C1048576 A19:A26 AI2:XFD6 D29:I29 K29:XFD29 AC3:AH3 AI8:XFD27 A2:XFD2 A1:G1 I1:XFD1 A2:I6 A4:XFD6 A8:XFD8 A7:G7 I7:XFD7 A8:I12 F13:H13">
-    <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
+  <conditionalFormatting sqref="A30:XFD1048576 A24 AI2:XFD6 AC3:AH3 AI8:XFD24 A2:XFD2 A1:G1 I1:XFD1 A2:I6 A4:XFD6 A8:XFD8 A7:G7 I7:XFD7 A8:I12 F13:H13">
+    <cfRule type="cellIs" dxfId="84" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:AH7">
-    <cfRule type="cellIs" dxfId="37" priority="21" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:AH6 K8:AH8 K10:AH12 J3:AA3 J9:AH9 K16:AH27">
-    <cfRule type="cellIs" dxfId="36" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="53" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:AH6 K8:AH8 K10:AH12 J3:AA3 J9:AH9 K16:AH18 K24:AH24">
+    <cfRule type="cellIs" dxfId="82" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AH4">
-    <cfRule type="cellIs" dxfId="35" priority="24" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J6 J8:J12 J16:J29">
-    <cfRule type="cellIs" dxfId="34" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="56" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J6 J8:J12 J16:J18 J24">
+    <cfRule type="cellIs" dxfId="80" priority="55" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="33" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC9:AH9">
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9:AA9">
-    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:H3 J3:XFD3 A9:H9 J9:XFD9 A10:XFD12 A18:XFD1048576 F16:XFD17 F13:H15 AI13:XFD15">
-    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="49" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:H3 J3:XFD3 A9:H9 J9:XFD9 A10:XFD12 A18:XFD18 F16:XFD17 F13:H15 AI13:XFD15 A24:XFD24 AI19:XFD23 A30:XFD1048576">
+    <cfRule type="cellIs" dxfId="76" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:AH9">
+    <cfRule type="cellIs" dxfId="75" priority="47" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:E17">
+    <cfRule type="cellIs" dxfId="74" priority="43" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:E17">
+    <cfRule type="cellIs" dxfId="73" priority="42" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:AH14 I15">
+    <cfRule type="cellIs" dxfId="72" priority="41" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:AH13">
+    <cfRule type="cellIs" dxfId="71" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:AH14 J15:AH15">
+    <cfRule type="cellIs" dxfId="70" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:J15">
+    <cfRule type="cellIs" dxfId="69" priority="39" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="68" priority="37" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC15:AH15">
+    <cfRule type="cellIs" dxfId="67" priority="36" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y15:AA15">
+    <cfRule type="cellIs" dxfId="66" priority="35" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:AH15">
+    <cfRule type="cellIs" dxfId="65" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:AH15">
+    <cfRule type="cellIs" dxfId="64" priority="33" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:H19">
+    <cfRule type="cellIs" dxfId="63" priority="32" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22:AH23">
+    <cfRule type="cellIs" dxfId="61" priority="31" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:J23">
+    <cfRule type="cellIs" dxfId="59" priority="30" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:AH23 F19:H21">
+    <cfRule type="cellIs" dxfId="57" priority="29" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:E23">
+    <cfRule type="cellIs" dxfId="55" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:E23">
+    <cfRule type="cellIs" dxfId="53" priority="27" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:AH20 I21">
+    <cfRule type="cellIs" dxfId="51" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:AH19">
+    <cfRule type="cellIs" dxfId="49" priority="23" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20:AH20 J21:AH21">
+    <cfRule type="cellIs" dxfId="47" priority="25" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:J21">
+    <cfRule type="cellIs" dxfId="45" priority="24" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="cellIs" dxfId="43" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC21:AH21">
+    <cfRule type="cellIs" dxfId="41" priority="21" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y21:AA21">
+    <cfRule type="cellIs" dxfId="39" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:AH21">
+    <cfRule type="cellIs" dxfId="37" priority="19" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:AH21">
+    <cfRule type="cellIs" dxfId="35" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI25:XFD29">
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI25:XFD29">
+    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25:H25">
     <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:E17">
+  <conditionalFormatting sqref="K28:AH29">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:J29">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:AH29 F25:H27">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:E29">
     <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:E17">
+  <conditionalFormatting sqref="A27:E29">
     <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:AH14 I15">
+  <conditionalFormatting sqref="I25:AH26 I27">
     <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13:AH13">
+  <conditionalFormatting sqref="J25:AH25">
     <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:AH14 J15:AH15">
+  <conditionalFormatting sqref="K26:AH26 J27:AH27">
     <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J15">
+  <conditionalFormatting sqref="J26:J27">
     <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
+  <conditionalFormatting sqref="I25">
     <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC15:AH15">
+  <conditionalFormatting sqref="AC27:AH27">
     <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y15:AA15">
+  <conditionalFormatting sqref="Y27:AA27">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15:AH15">
+  <conditionalFormatting sqref="J27:AH27">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:AH15">
+  <conditionalFormatting sqref="K27:AH27">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>K</t>
   </si>
@@ -36,13 +37,172 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>value = get(h.checkbox1, 'Value');</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>E19</t>
+  </si>
+  <si>
+    <t>E20</t>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>E23</t>
+  </si>
+  <si>
+    <t>E24</t>
+  </si>
+  <si>
+    <t>E25</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>value =()</t>
+  </si>
+  <si>
+    <t>write(value) in file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,6 +241,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -90,12 +256,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -116,10 +297,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -138,231 +324,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="85">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="53">
     <dxf>
       <fill>
         <patternFill>
@@ -1012,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+    <sheetView showRuler="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25:AH25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2364,270 +2326,708 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A30:XFD1048576 A24 AI2:XFD6 AC3:AH3 AI8:XFD24 A2:XFD2 A1:G1 I1:XFD1 A2:I6 A4:XFD6 A8:XFD8 A7:G7 I7:XFD7 A8:I12 F13:H13">
-    <cfRule type="cellIs" dxfId="84" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:AH7">
-    <cfRule type="cellIs" dxfId="83" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:AH6 K8:AH8 K10:AH12 J3:AA3 J9:AH9 K16:AH18 K24:AH24">
-    <cfRule type="cellIs" dxfId="82" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AH4">
-    <cfRule type="cellIs" dxfId="81" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J6 J8:J12 J16:J18 J24">
-    <cfRule type="cellIs" dxfId="80" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="55" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="79" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC9:AH9">
-    <cfRule type="cellIs" dxfId="78" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9:AA9">
-    <cfRule type="cellIs" dxfId="77" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:H3 J3:XFD3 A9:H9 J9:XFD9 A10:XFD12 A18:XFD18 F16:XFD17 F13:H15 AI13:XFD15 A24:XFD24 AI19:XFD23 A30:XFD1048576">
-    <cfRule type="cellIs" dxfId="76" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:AH9">
-    <cfRule type="cellIs" dxfId="75" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:E17">
-    <cfRule type="cellIs" dxfId="74" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:E17">
-    <cfRule type="cellIs" dxfId="73" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:AH14 I15">
-    <cfRule type="cellIs" dxfId="72" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:AH13">
-    <cfRule type="cellIs" dxfId="71" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:AH14 J15:AH15">
-    <cfRule type="cellIs" dxfId="70" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:J15">
-    <cfRule type="cellIs" dxfId="69" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="68" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC15:AH15">
-    <cfRule type="cellIs" dxfId="67" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15:AA15">
-    <cfRule type="cellIs" dxfId="66" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:AH15">
-    <cfRule type="cellIs" dxfId="65" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:AH15">
-    <cfRule type="cellIs" dxfId="64" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:H19">
-    <cfRule type="cellIs" dxfId="63" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:AH23">
-    <cfRule type="cellIs" dxfId="61" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J23">
-    <cfRule type="cellIs" dxfId="59" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:AH23 F19:H21">
-    <cfRule type="cellIs" dxfId="57" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:E23">
-    <cfRule type="cellIs" dxfId="55" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:E23">
-    <cfRule type="cellIs" dxfId="53" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:AH20 I21">
-    <cfRule type="cellIs" dxfId="51" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:AH19">
-    <cfRule type="cellIs" dxfId="49" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:AH20 J21:AH21">
-    <cfRule type="cellIs" dxfId="47" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:J21">
-    <cfRule type="cellIs" dxfId="45" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="43" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC21:AH21">
-    <cfRule type="cellIs" dxfId="41" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y21:AA21">
-    <cfRule type="cellIs" dxfId="39" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:AH21">
-    <cfRule type="cellIs" dxfId="37" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:AH21">
-    <cfRule type="cellIs" dxfId="35" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI25:XFD29">
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI25:XFD29">
-    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:H25">
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:AH29">
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J29">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:AH29 F25:H27">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:E29">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:E29">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:AH26 I27">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:AH25">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:AH26 J27:AH27">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:J27">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC27:AH27">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y27:AA27">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:AH27">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:AH27">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11" style="3"/>
+    <col min="4" max="4" width="15.375" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <f>"value("&amp;A3&amp;") = get"</f>
+        <v>value(1) = get</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f>CONCATENATE(B3,"(",C3,")")</f>
+        <v>value(1) = get(E1)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f t="shared" ref="B4:B27" si="0">"value("&amp;A4&amp;") = get"</f>
+        <v>value(2) = get</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" ref="D4:D27" si="1">CONCATENATE(B4,"(",C4,")")</f>
+        <v>value(2) = get(E2)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(3) = get</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(3) = get(E3)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(4) = get</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(4) = get(E4)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(5) = get</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(5) = get(E5)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(6) = get</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(6) = get(E6)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(7) = get</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(7) = get(E7)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(8) = get</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(8) = get(E8)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(9) = get</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(9) = get(E9)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(10) = get</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(10) = get(E10)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(11) = get</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(11) = get(E11)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(12) = get</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(12) = get(E12)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(13) = get</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(13) = get(E13)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(14) = get</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(14) = get(E14)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(15) = get</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(15) = get(E15)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(16) = get</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(16) = get(E16)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(17) = get</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(17) = get(E17)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(18) = get</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(18) = get(E18)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(19) = get</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(19) = get(E19)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(20) = get</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(20) = get(E20)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(21) = get</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(21) = get(E21)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(22) = get</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(22) = get(E22)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(23) = get</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(23) = get(E23)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(24) = get</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(24) = get(E24)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(25) = get</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(25) = get(E25)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14580" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="Entrenamiento" sheetId="2" r:id="rId2"/>
+    <sheet name="Analisis" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
   <si>
     <t>K</t>
   </si>
@@ -196,6 +197,81 @@
   </si>
   <si>
     <t>write(value) in file</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>A24</t>
+  </si>
+  <si>
+    <t>A25</t>
   </si>
 </sst>
 </file>
@@ -2599,8 +2675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3031,4 +3107,441 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11" style="3"/>
+    <col min="4" max="4" width="15.375" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <f>"value("&amp;A3&amp;") = get"</f>
+        <v>value(1) = get</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f>CONCATENATE(B3,"(",C3,")")</f>
+        <v>value(1) = get(A1)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f t="shared" ref="B4:B27" si="0">"value("&amp;A4&amp;") = get"</f>
+        <v>value(2) = get</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" ref="D4:D27" si="1">CONCATENATE(B4,"(",C4,")")</f>
+        <v>value(2) = get(A2)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(3) = get</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(3) = get(A3)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(4) = get</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(4) = get(A4)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(5) = get</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(5) = get(A5)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(6) = get</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(6) = get(A6)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(7) = get</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(7) = get(A7)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(8) = get</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(8) = get(A8)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(9) = get</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(9) = get(A9)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(10) = get</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(10) = get(A10)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(11) = get</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(11) = get(A11)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(12) = get</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(12) = get(A12)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(13) = get</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(13) = get(A13)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(14) = get</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(14) = get(A14)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(15) = get</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(15) = get(A15)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(16) = get</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(16) = get(A16)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(17) = get</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(17) = get(A17)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(18) = get</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(18) = get(A18)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(19) = get</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(19) = get(A19)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(20) = get</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(20) = get(A20)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(21) = get</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(21) = get(A21)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(22) = get</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(22) = get(A22)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(23) = get</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(23) = get(A23)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(24) = get</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(24) = get(A24)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>value(25) = get</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(25) = get(A25)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14580" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Matriz" sheetId="1" r:id="rId1"/>
     <sheet name="Entrenamiento" sheetId="2" r:id="rId2"/>
     <sheet name="Analisis" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25:AH25"/>
+      <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3114,7 +3114,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
   <si>
     <t>K</t>
   </si>
@@ -199,86 +199,92 @@
     <t>write(value) in file</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>A14</t>
-  </si>
-  <si>
-    <t>A15</t>
-  </si>
-  <si>
-    <t>A16</t>
-  </si>
-  <si>
-    <t>A17</t>
-  </si>
-  <si>
-    <t>A18</t>
-  </si>
-  <si>
-    <t>A19</t>
-  </si>
-  <si>
-    <t>A20</t>
-  </si>
-  <si>
-    <t>A21</t>
-  </si>
-  <si>
-    <t>A22</t>
-  </si>
-  <si>
-    <t>A23</t>
-  </si>
-  <si>
-    <t>A24</t>
-  </si>
-  <si>
-    <t>A25</t>
+    <t xml:space="preserve"> value(1) = get(h.A1,'Value')</t>
+  </si>
+  <si>
+    <t>h.A1</t>
+  </si>
+  <si>
+    <t>h.A2</t>
+  </si>
+  <si>
+    <t>h.A3</t>
+  </si>
+  <si>
+    <t>h.A4</t>
+  </si>
+  <si>
+    <t>h.A5</t>
+  </si>
+  <si>
+    <t>h.A6</t>
+  </si>
+  <si>
+    <t>h.A7</t>
+  </si>
+  <si>
+    <t>h.A8</t>
+  </si>
+  <si>
+    <t>h.A9</t>
+  </si>
+  <si>
+    <t>h.A10</t>
+  </si>
+  <si>
+    <t>h.A11</t>
+  </si>
+  <si>
+    <t>h.A12</t>
+  </si>
+  <si>
+    <t>h.A13</t>
+  </si>
+  <si>
+    <t>h.A14</t>
+  </si>
+  <si>
+    <t>h.A15</t>
+  </si>
+  <si>
+    <t>h.A16</t>
+  </si>
+  <si>
+    <t>h.A17</t>
+  </si>
+  <si>
+    <t>h.A18</t>
+  </si>
+  <si>
+    <t>h.A19</t>
+  </si>
+  <si>
+    <t>h.A20</t>
+  </si>
+  <si>
+    <t>h.A21</t>
+  </si>
+  <si>
+    <t>h.A22</t>
+  </si>
+  <si>
+    <t>h.A23</t>
+  </si>
+  <si>
+    <t>h.A24</t>
+  </si>
+  <si>
+    <t>h.A25</t>
+  </si>
+  <si>
+    <t>,´Value'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -322,6 +328,13 @@
       <color rgb="FF333333"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -373,7 +386,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -382,6 +395,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -3111,32 +3125,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11" style="3"/>
-    <col min="4" max="4" width="15.375" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="11" style="3"/>
+    <col min="3" max="3" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="3"/>
+    <col min="5" max="5" width="25.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D2" s="5" t="s">
+      <c r="F1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -3145,14 +3163,17 @@
         <v>value(1) = get</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="5" t="str">
-        <f>CONCATENATE(B3,"(",C3,")")</f>
-        <v>value(1) = get(A1)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <f>CONCATENATE(B3,"(",C3,D3,")")</f>
+        <v>value(1) = get(h.A1,´Value')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
@@ -3161,14 +3182,17 @@
         <v>value(2) = get</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="5" t="str">
-        <f t="shared" ref="D4:D27" si="1">CONCATENATE(B4,"(",C4,")")</f>
-        <v>value(2) = get(A2)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" ref="E4:E27" si="1">CONCATENATE(B4,"(",C4,D4,")")</f>
+        <v>value(2) = get(h.A2,´Value')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -3177,14 +3201,17 @@
         <v>value(3) = get</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(3) = get(A3)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(3) = get(h.A3,´Value')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -3193,14 +3220,17 @@
         <v>value(4) = get</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(4) = get(A4)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(4) = get(h.A4,´Value')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -3209,14 +3239,17 @@
         <v>value(5) = get</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(5) = get(A5)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(5) = get(h.A5,´Value')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
@@ -3225,14 +3258,17 @@
         <v>value(6) = get</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(6) = get(A6)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(6) = get(h.A6,´Value')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
@@ -3241,14 +3277,17 @@
         <v>value(7) = get</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(7) = get(A7)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(7) = get(h.A7,´Value')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
@@ -3257,14 +3296,17 @@
         <v>value(8) = get</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(8) = get(A8)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(8) = get(h.A8,´Value')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
@@ -3273,14 +3315,17 @@
         <v>value(9) = get</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(9) = get(A9)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(9) = get(h.A9,´Value')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
@@ -3289,14 +3334,17 @@
         <v>value(10) = get</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(10) = get(A10)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(10) = get(h.A10,´Value')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
@@ -3305,14 +3353,17 @@
         <v>value(11) = get</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(11) = get(A11)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(11) = get(h.A11,´Value')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -3321,14 +3372,17 @@
         <v>value(12) = get</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(12) = get(A12)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(12) = get(h.A12,´Value')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -3337,14 +3391,17 @@
         <v>value(13) = get</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(13) = get(A13)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(13) = get(h.A13,´Value')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
@@ -3353,14 +3410,17 @@
         <v>value(14) = get</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(14) = get(A14)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(14) = get(h.A14,´Value')</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -3369,14 +3429,17 @@
         <v>value(15) = get</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(15) = get(A15)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(15) = get(h.A15,´Value')</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
@@ -3385,14 +3448,17 @@
         <v>value(16) = get</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(16) = get(A16)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(16) = get(h.A16,´Value')</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
@@ -3401,14 +3467,17 @@
         <v>value(17) = get</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(17) = get(A17)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(17) = get(h.A17,´Value')</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
@@ -3417,14 +3486,17 @@
         <v>value(18) = get</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(18) = get(A18)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(18) = get(h.A18,´Value')</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>48</v>
       </c>
@@ -3433,14 +3505,17 @@
         <v>value(19) = get</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(19) = get(A19)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(19) = get(h.A19,´Value')</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -3449,14 +3524,17 @@
         <v>value(20) = get</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(20) = get(A20)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(20) = get(h.A20,´Value')</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
@@ -3465,14 +3543,17 @@
         <v>value(21) = get</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(21) = get(A21)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(21) = get(h.A21,´Value')</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
@@ -3481,14 +3562,17 @@
         <v>value(22) = get</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(22) = get(A22)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(22) = get(h.A22,´Value')</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
@@ -3497,14 +3581,17 @@
         <v>value(23) = get</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(23) = get(A23)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(23) = get(h.A23,´Value')</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
@@ -3513,14 +3600,17 @@
         <v>value(24) = get</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(24) = get(A24)</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(24) = get(h.A24,´Value')</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>54</v>
       </c>
@@ -3529,19 +3619,23 @@
         <v>value(25) = get</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(25) = get(A25)</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(25) = get(h.A25,´Value')</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="5" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14580" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
   <si>
     <t>K</t>
   </si>
@@ -43,81 +43,6 @@
     <t>value = get(h.checkbox1, 'Value');</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>E13</t>
-  </si>
-  <si>
-    <t>E14</t>
-  </si>
-  <si>
-    <t>E15</t>
-  </si>
-  <si>
-    <t>E16</t>
-  </si>
-  <si>
-    <t>E17</t>
-  </si>
-  <si>
-    <t>E18</t>
-  </si>
-  <si>
-    <t>E19</t>
-  </si>
-  <si>
-    <t>E20</t>
-  </si>
-  <si>
-    <t>E21</t>
-  </si>
-  <si>
-    <t>E22</t>
-  </si>
-  <si>
-    <t>E23</t>
-  </si>
-  <si>
-    <t>E24</t>
-  </si>
-  <si>
-    <t>E25</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -277,7 +202,88 @@
     <t>h.A25</t>
   </si>
   <si>
-    <t>,´Value'</t>
+    <t>,'Value'</t>
+  </si>
+  <si>
+    <t>h.E1</t>
+  </si>
+  <si>
+    <t>h.E2</t>
+  </si>
+  <si>
+    <t>h.E3</t>
+  </si>
+  <si>
+    <t>h.E4</t>
+  </si>
+  <si>
+    <t>h.E5</t>
+  </si>
+  <si>
+    <t>h.E6</t>
+  </si>
+  <si>
+    <t>h.E7</t>
+  </si>
+  <si>
+    <t>h.E8</t>
+  </si>
+  <si>
+    <t>h.E9</t>
+  </si>
+  <si>
+    <t>h.E10</t>
+  </si>
+  <si>
+    <t>h.E11</t>
+  </si>
+  <si>
+    <t>h.E12</t>
+  </si>
+  <si>
+    <t>h.E13</t>
+  </si>
+  <si>
+    <t>h.E14</t>
+  </si>
+  <si>
+    <t>h.E15</t>
+  </si>
+  <si>
+    <t>h.E16</t>
+  </si>
+  <si>
+    <t>h.E17</t>
+  </si>
+  <si>
+    <t>h.E18</t>
+  </si>
+  <si>
+    <t>h.E19</t>
+  </si>
+  <si>
+    <t>h.E20</t>
+  </si>
+  <si>
+    <t>h.E21</t>
+  </si>
+  <si>
+    <t>h.E22</t>
+  </si>
+  <si>
+    <t>h.E23</t>
+  </si>
+  <si>
+    <t>h.E24</t>
+  </si>
+  <si>
+    <t>h.E25</t>
+  </si>
+  <si>
+    <t>value =[]</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -1064,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="AI17" sqref="AI17"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1080,7 @@
     <col min="6" max="6" width="7.125" customWidth="1"/>
     <col min="7" max="7" width="2.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.875" bestFit="1" customWidth="1"/>
     <col min="10" max="34" width="1.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2163,8 +2169,8 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="G25">
-        <v>0</v>
+      <c r="G25" t="s">
+        <v>85</v>
       </c>
       <c r="J25">
         <f>A25</f>
@@ -2302,7 +2308,7 @@
       </c>
       <c r="I27">
         <f>CODE(G25)</f>
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2687,434 +2693,510 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11" style="3"/>
-    <col min="4" max="4" width="15.375" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="11" style="3"/>
+    <col min="3" max="3" width="5.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="3"/>
+    <col min="5" max="5" width="25.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D2" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5" t="str">
         <f>"value("&amp;A3&amp;") = get"</f>
         <v>value(1) = get</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="str">
-        <f>CONCATENATE(B3,"(",C3,")")</f>
-        <v>value(1) = get(E1)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <f>CONCATENATE(B3,"(",C3,D3,")")</f>
+        <v>value(1) = get(h.E1,'Value')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5" t="str">
         <f t="shared" ref="B4:B27" si="0">"value("&amp;A4&amp;") = get"</f>
         <v>value(2) = get</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="str">
-        <f t="shared" ref="D4:D27" si="1">CONCATENATE(B4,"(",C4,")")</f>
-        <v>value(2) = get(E2)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" ref="E4:E27" si="1">CONCATENATE(B4,"(",C4,D4,")")</f>
+        <v>value(2) = get(h.E2,'Value')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(3) = get</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(3) = get(E3)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(3) = get(h.E3,'Value')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(4) = get</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(4) = get(E4)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(4) = get(h.E4,'Value')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(5) = get</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(5) = get(E5)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(5) = get(h.E5,'Value')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(6) = get</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(6) = get(E6)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(6) = get(h.E6,'Value')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(7) = get</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(7) = get(E7)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(7) = get(h.E7,'Value')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(8) = get</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(8) = get(E8)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(8) = get(h.E8,'Value')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(9) = get</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(9) = get(E9)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(9) = get(h.E9,'Value')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(10) = get</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(10) = get(E10)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(10) = get(h.E10,'Value')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(11) = get</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(11) = get(E11)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(11) = get(h.E11,'Value')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(12) = get</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(12) = get(E12)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(12) = get(h.E12,'Value')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(13) = get</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(13) = get(E13)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(13) = get(h.E13,'Value')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(14) = get</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(14) = get(E14)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(14) = get(h.E14,'Value')</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(15) = get</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(15) = get(E15)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(15) = get(h.E15,'Value')</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(16) = get</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(16) = get(E16)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(16) = get(h.E16,'Value')</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(17) = get</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(17) = get(E17)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(17) = get(h.E17,'Value')</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(18) = get</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(18) = get(E18)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(18) = get(h.E18,'Value')</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(19) = get</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(19) = get(E19)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(19) = get(h.E19,'Value')</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(20) = get</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(20) = get(E20)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(20) = get(h.E20,'Value')</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(21) = get</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(21) = get(E21)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(21) = get(h.E21,'Value')</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(22) = get</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(22) = get(E22)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(22) = get(h.E22,'Value')</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(23) = get</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(23) = get(E23)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(23) = get(h.E23,'Value')</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(24) = get</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(24) = get(E24)</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(24) = get(h.E24,'Value')</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(25) = get</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>value(25) = get(E25)</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="5" t="s">
-        <v>56</v>
+        <v>83</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>value(25) = get(h.E25,'Value')</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3127,8 +3209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3146,492 +3228,492 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E2" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5" t="str">
         <f>"value("&amp;A3&amp;") = get"</f>
         <v>value(1) = get</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>CONCATENATE(B3,"(",C3,D3,")")</f>
-        <v>value(1) = get(h.A1,´Value')</v>
+        <v>value(1) = get(h.A1,'Value')</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5" t="str">
         <f t="shared" ref="B4:B27" si="0">"value("&amp;A4&amp;") = get"</f>
         <v>value(2) = get</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E4" s="5" t="str">
         <f t="shared" ref="E4:E27" si="1">CONCATENATE(B4,"(",C4,D4,")")</f>
-        <v>value(2) = get(h.A2,´Value')</v>
+        <v>value(2) = get(h.A2,'Value')</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(3) = get</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(3) = get(h.A3,´Value')</v>
+        <v>value(3) = get(h.A3,'Value')</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(4) = get</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(4) = get(h.A4,´Value')</v>
+        <v>value(4) = get(h.A4,'Value')</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(5) = get</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(5) = get(h.A5,´Value')</v>
+        <v>value(5) = get(h.A5,'Value')</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(6) = get</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(6) = get(h.A6,´Value')</v>
+        <v>value(6) = get(h.A6,'Value')</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(7) = get</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(7) = get(h.A7,´Value')</v>
+        <v>value(7) = get(h.A7,'Value')</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(8) = get</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(8) = get(h.A8,´Value')</v>
+        <v>value(8) = get(h.A8,'Value')</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(9) = get</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(9) = get(h.A9,´Value')</v>
+        <v>value(9) = get(h.A9,'Value')</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(10) = get</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(10) = get(h.A10,´Value')</v>
+        <v>value(10) = get(h.A10,'Value')</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(11) = get</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(11) = get(h.A11,´Value')</v>
+        <v>value(11) = get(h.A11,'Value')</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(12) = get</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(12) = get(h.A12,´Value')</v>
+        <v>value(12) = get(h.A12,'Value')</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(13) = get</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E15" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(13) = get(h.A13,´Value')</v>
+        <v>value(13) = get(h.A13,'Value')</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(14) = get</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E16" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(14) = get(h.A14,´Value')</v>
+        <v>value(14) = get(h.A14,'Value')</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(15) = get</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E17" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(15) = get(h.A15,´Value')</v>
+        <v>value(15) = get(h.A15,'Value')</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(16) = get</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E18" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(16) = get(h.A16,´Value')</v>
+        <v>value(16) = get(h.A16,'Value')</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(17) = get</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E19" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(17) = get(h.A17,´Value')</v>
+        <v>value(17) = get(h.A17,'Value')</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(18) = get</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E20" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(18) = get(h.A18,´Value')</v>
+        <v>value(18) = get(h.A18,'Value')</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(19) = get</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E21" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(19) = get(h.A19,´Value')</v>
+        <v>value(19) = get(h.A19,'Value')</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(20) = get</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E22" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(20) = get(h.A20,´Value')</v>
+        <v>value(20) = get(h.A20,'Value')</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(21) = get</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E23" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(21) = get(h.A21,´Value')</v>
+        <v>value(21) = get(h.A21,'Value')</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(22) = get</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E24" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(22) = get(h.A22,´Value')</v>
+        <v>value(22) = get(h.A22,'Value')</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(23) = get</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E25" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(23) = get(h.A23,´Value')</v>
+        <v>value(23) = get(h.A23,'Value')</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(24) = get</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E26" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(24) = get(h.A24,´Value')</v>
+        <v>value(24) = get(h.A24,'Value')</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>value(25) = get</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E27" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(25) = get(h.A25,´Value')</v>
+        <v>value(25) = get(h.A25,'Value')</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E30" s="5" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="87">
   <si>
     <t>K</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -2695,8 +2698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2721,11 +2724,11 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="str">
         <f>"value("&amp;A3&amp;") = get"</f>
-        <v>value(1) = get</v>
+        <v>value(2) = get</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>59</v>
@@ -2735,16 +2738,16 @@
       </c>
       <c r="E3" s="5" t="str">
         <f>CONCATENATE(B3,"(",C3,D3,")")</f>
-        <v>value(1) = get(h.E1,'Value')</v>
+        <v>value(2) = get(h.E1,'Value')</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5" t="str">
         <f t="shared" ref="B4:B27" si="0">"value("&amp;A4&amp;") = get"</f>
-        <v>value(2) = get</v>
+        <v>value(3) = get</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>60</v>
@@ -2754,16 +2757,16 @@
       </c>
       <c r="E4" s="5" t="str">
         <f t="shared" ref="E4:E27" si="1">CONCATENATE(B4,"(",C4,D4,")")</f>
-        <v>value(2) = get(h.E2,'Value')</v>
+        <v>value(3) = get(h.E2,'Value')</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>value(3) = get</v>
+        <v>value(4) = get</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>61</v>
@@ -2773,16 +2776,16 @@
       </c>
       <c r="E5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(3) = get(h.E3,'Value')</v>
+        <v>value(4) = get(h.E3,'Value')</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>value(4) = get</v>
+        <v>value(5) = get</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>62</v>
@@ -2792,16 +2795,16 @@
       </c>
       <c r="E6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(4) = get(h.E4,'Value')</v>
+        <v>value(5) = get(h.E4,'Value')</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>value(5) = get</v>
+        <v>value(6) = get</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>63</v>
@@ -2811,16 +2814,16 @@
       </c>
       <c r="E7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(5) = get(h.E5,'Value')</v>
+        <v>value(6) = get(h.E5,'Value')</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>value(6) = get</v>
+        <v>value(7) = get</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>64</v>
@@ -2830,16 +2833,16 @@
       </c>
       <c r="E8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(6) = get(h.E6,'Value')</v>
+        <v>value(7) = get(h.E6,'Value')</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>value(7) = get</v>
+        <v>value(8) = get</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>65</v>
@@ -2849,16 +2852,16 @@
       </c>
       <c r="E9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(7) = get(h.E7,'Value')</v>
+        <v>value(8) = get(h.E7,'Value')</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>value(8) = get</v>
+        <v>value(9) = get</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>66</v>
@@ -2868,16 +2871,16 @@
       </c>
       <c r="E10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(8) = get(h.E8,'Value')</v>
+        <v>value(9) = get(h.E8,'Value')</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>value(9) = get</v>
+        <v>value(10) = get</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>67</v>
@@ -2887,16 +2890,16 @@
       </c>
       <c r="E11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(9) = get(h.E9,'Value')</v>
+        <v>value(10) = get(h.E9,'Value')</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>value(10) = get</v>
+        <v>value(11) = get</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>68</v>
@@ -2906,16 +2909,16 @@
       </c>
       <c r="E12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(10) = get(h.E10,'Value')</v>
+        <v>value(11) = get(h.E10,'Value')</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>value(11) = get</v>
+        <v>value(12) = get</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>69</v>
@@ -2925,16 +2928,16 @@
       </c>
       <c r="E13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(11) = get(h.E11,'Value')</v>
+        <v>value(12) = get(h.E11,'Value')</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>value(12) = get</v>
+        <v>value(13) = get</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>70</v>
@@ -2944,16 +2947,16 @@
       </c>
       <c r="E14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(12) = get(h.E12,'Value')</v>
+        <v>value(13) = get(h.E12,'Value')</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>value(13) = get</v>
+        <v>value(14) = get</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>71</v>
@@ -2963,16 +2966,16 @@
       </c>
       <c r="E15" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(13) = get(h.E13,'Value')</v>
+        <v>value(14) = get(h.E13,'Value')</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>value(14) = get</v>
+        <v>value(15) = get</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>72</v>
@@ -2982,16 +2985,16 @@
       </c>
       <c r="E16" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(14) = get(h.E14,'Value')</v>
+        <v>value(15) = get(h.E14,'Value')</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>value(15) = get</v>
+        <v>value(16) = get</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>73</v>
@@ -3001,16 +3004,16 @@
       </c>
       <c r="E17" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(15) = get(h.E15,'Value')</v>
+        <v>value(16) = get(h.E15,'Value')</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>value(16) = get</v>
+        <v>value(17) = get</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>74</v>
@@ -3020,16 +3023,16 @@
       </c>
       <c r="E18" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(16) = get(h.E16,'Value')</v>
+        <v>value(17) = get(h.E16,'Value')</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>value(17) = get</v>
+        <v>value(18) = get</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>75</v>
@@ -3039,16 +3042,16 @@
       </c>
       <c r="E19" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(17) = get(h.E17,'Value')</v>
+        <v>value(18) = get(h.E17,'Value')</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>value(18) = get</v>
+        <v>value(19) = get</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>76</v>
@@ -3058,16 +3061,16 @@
       </c>
       <c r="E20" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(18) = get(h.E18,'Value')</v>
+        <v>value(19) = get(h.E18,'Value')</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>value(19) = get</v>
+        <v>value(20) = get</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>77</v>
@@ -3077,16 +3080,16 @@
       </c>
       <c r="E21" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(19) = get(h.E19,'Value')</v>
+        <v>value(20) = get(h.E19,'Value')</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>value(20) = get</v>
+        <v>value(21) = get</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>78</v>
@@ -3096,16 +3099,16 @@
       </c>
       <c r="E22" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(20) = get(h.E20,'Value')</v>
+        <v>value(21) = get(h.E20,'Value')</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>value(21) = get</v>
+        <v>value(22) = get</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>79</v>
@@ -3115,16 +3118,16 @@
       </c>
       <c r="E23" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(21) = get(h.E21,'Value')</v>
+        <v>value(22) = get(h.E21,'Value')</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>value(22) = get</v>
+        <v>value(23) = get</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>80</v>
@@ -3134,16 +3137,16 @@
       </c>
       <c r="E24" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(22) = get(h.E22,'Value')</v>
+        <v>value(23) = get(h.E22,'Value')</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>value(23) = get</v>
+        <v>value(24) = get</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>81</v>
@@ -3153,16 +3156,16 @@
       </c>
       <c r="E25" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(23) = get(h.E23,'Value')</v>
+        <v>value(24) = get(h.E23,'Value')</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>value(24) = get</v>
+        <v>value(25) = get</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>82</v>
@@ -3172,16 +3175,16 @@
       </c>
       <c r="E26" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(24) = get(h.E24,'Value')</v>
+        <v>value(25) = get(h.E24,'Value')</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="B27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>value(25) = get</v>
+        <v>value(26) = get</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>83</v>
@@ -3191,7 +3194,7 @@
       </c>
       <c r="E27" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>value(25) = get(h.E25,'Value')</v>
+        <v>value(26) = get(h.E25,'Value')</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
